--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73173776-CF02-40ED-B742-361B2F8B05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48489F5F-E61D-4680-8806-0A6D2CF3B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J2">
         <v>1.0999999999999999</v>
@@ -573,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J3">
         <v>1.22</v>
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J4">
         <v>1.0999999999999999</v>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>2.75</v>
+        <v>5.01</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -678,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J6">
         <v>1.29</v>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J7">
         <v>1.69</v>
@@ -748,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J8">
         <v>1.27</v>
@@ -783,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J9">
         <v>1.92</v>
@@ -818,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.3499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J10">
         <v>1.1399999999999999</v>
@@ -853,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J11">
         <v>1.74</v>
@@ -888,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J12">
         <v>2.33</v>
@@ -923,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.67</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -958,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J14">
         <v>1.69</v>
@@ -993,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J15">
         <v>1.54</v>
@@ -1028,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J17">
         <v>1.89</v>
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J18">
         <v>1.39</v>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J19">
         <v>1.53</v>
@@ -1168,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J20">
         <v>1.71</v>
@@ -1203,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J21">
         <v>1.18</v>
@@ -1238,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1273,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>2.7200000000000006</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J23">
         <v>1.48</v>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J24">
         <v>2.2200000000000002</v>
@@ -1343,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>2.92</v>
+        <v>5.01</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1413,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>1.6099999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1448,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1483,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J29">
         <v>1.19</v>
@@ -1518,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J30">
         <v>1.1299999999999999</v>
@@ -1553,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J31">
         <v>1.66</v>
@@ -1588,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J32">
         <v>1.5</v>
@@ -1623,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J33">
         <v>1.28</v>
@@ -1658,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2.46</v>
+        <v>4.46</v>
       </c>
       <c r="J34">
         <v>2.4400000000000004</v>
@@ -1693,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>2.54</v>
+        <v>4.54</v>
       </c>
       <c r="J35">
         <v>1.67</v>
@@ -1728,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="I36">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J36">
         <v>1.89</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J37">
         <v>1.42</v>
@@ -1798,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <v>1.92</v>
+        <v>3.92</v>
       </c>
       <c r="J38">
         <v>0.99</v>
@@ -1833,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>2.7799999999999994</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J39">
         <v>1.51</v>
@@ -1868,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J40">
         <v>1.6199999999999999</v>
@@ -1903,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="I41">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J41">
         <v>1.3599999999999999</v>
@@ -1938,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J42">
         <v>2.3200000000000003</v>
@@ -1973,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -2008,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="I44">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J44">
         <v>2.4000000000000004</v>
@@ -2043,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J45">
         <v>1.1499999999999999</v>
@@ -2078,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J46">
         <v>1.21</v>
@@ -2113,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J47">
         <v>2.3800000000000003</v>
@@ -2148,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J48">
         <v>2.2400000000000002</v>
@@ -2183,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J49">
         <v>1.5999999999999999</v>
@@ -2218,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J50">
         <v>1.94</v>
@@ -2253,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2288,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.62</v>
+        <v>4.62</v>
       </c>
       <c r="J52">
         <v>1.92</v>
@@ -2323,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="J53">
         <v>2.0100000000000002</v>
@@ -2358,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J54">
         <v>2.4000000000000004</v>
@@ -2393,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2428,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J56">
         <v>2.37</v>
@@ -2463,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="I57">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J57">
         <v>1.82</v>
@@ -2498,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>1.7400000000000002</v>
+        <v>3.74</v>
       </c>
       <c r="J58">
         <v>1.6199999999999999</v>
@@ -2533,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J59">
         <v>2.1500000000000004</v>
@@ -2568,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J60">
         <v>2.31</v>
@@ -2603,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>2.67</v>
+        <v>4.67</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2638,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2673,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J63">
         <v>1.57</v>
@@ -2708,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J64">
         <v>1.76</v>
@@ -2743,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J65">
         <v>1.1299999999999999</v>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J66">
         <v>0.97</v>
@@ -2813,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>2.8900000000000006</v>
+        <v>4.8900000000000006</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2848,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J68">
         <v>2.1700000000000004</v>
@@ -2883,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="I69">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="J69">
         <v>1.03</v>
@@ -2918,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>2.66</v>
+        <v>5.01</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>
@@ -2953,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J71">
         <v>1.01</v>
@@ -2988,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J72">
         <v>2.08</v>
@@ -3023,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="I73">
-        <v>1.5899999999999999</v>
+        <v>3.59</v>
       </c>
       <c r="J73">
         <v>1.38</v>
@@ -3058,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J74">
         <v>1.54</v>
@@ -3093,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="J75">
         <v>1.22</v>
@@ -3128,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J76">
         <v>1.97</v>
@@ -3163,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J77">
         <v>2.2400000000000002</v>
@@ -3198,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J78">
         <v>1.82</v>
@@ -3233,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.1899999999999995</v>
+        <v>4.1899999999999995</v>
       </c>
       <c r="J79">
         <v>1.3499999999999999</v>
@@ -3268,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J80">
         <v>1.6199999999999999</v>
@@ -3303,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J81">
         <v>1.77</v>
@@ -3338,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="I82">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="J82">
         <v>2.4000000000000004</v>
@@ -3373,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>1.1599999999999999</v>
@@ -3408,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="J84">
         <v>2.2400000000000002</v>
@@ -3443,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J85">
         <v>1.63</v>
@@ -3478,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J86">
         <v>1.8699999999999999</v>
@@ -3513,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3548,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J88">
         <v>1.1599999999999999</v>
@@ -3583,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>2.7799999999999994</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J89">
         <v>2.21</v>
@@ -3618,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J90">
         <v>1.17</v>
@@ -3653,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="J91">
         <v>1.42</v>
@@ -3688,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J92">
         <v>1.91</v>
@@ -3723,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J93">
         <v>1.69</v>
@@ -3758,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="I94">
-        <v>1.87</v>
+        <v>3.87</v>
       </c>
       <c r="J94">
         <v>2.31</v>
@@ -3793,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J95">
         <v>2.0900000000000003</v>
@@ -3828,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <v>1.62</v>
+        <v>3.62</v>
       </c>
       <c r="J96">
         <v>1.95</v>
@@ -3863,7 +3866,7 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J97">
         <v>1.67</v>
@@ -3898,7 +3901,7 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J98">
         <v>2.4300000000000002</v>
@@ -3933,7 +3936,7 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>2.5199999999999996</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J99">
         <v>1.94</v>
@@ -3968,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>2.17</v>
+        <v>4.17</v>
       </c>
       <c r="J100">
         <v>1.71</v>
@@ -4003,7 +4006,7 @@
         <v>15</v>
       </c>
       <c r="I101">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J101">
         <v>1.4</v>
@@ -4038,7 +4041,7 @@
         <v>15</v>
       </c>
       <c r="I102">
-        <v>1.7400000000000002</v>
+        <v>3.74</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4073,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="I103">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J103">
         <v>0.99</v>
@@ -4108,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J104">
         <v>1.43</v>
@@ -4143,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>2.17</v>
+        <v>4.17</v>
       </c>
       <c r="J105">
         <v>1.99</v>
@@ -4178,7 +4181,7 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>2.7300000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J106">
         <v>1.3699999999999999</v>
@@ -4213,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="I107">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J107">
         <v>2.29</v>
@@ -4248,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="I108">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J108">
         <v>2.4200000000000004</v>
@@ -4283,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="I109">
-        <v>2.9399999999999995</v>
+        <v>4.9399999999999995</v>
       </c>
       <c r="J109">
         <v>2.16</v>
@@ -4318,7 +4321,7 @@
         <v>15</v>
       </c>
       <c r="I110">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J110">
         <v>1.06</v>
@@ -4353,7 +4356,7 @@
         <v>15</v>
       </c>
       <c r="I111">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J111">
         <v>1.29</v>
@@ -4388,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="I112">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="J112">
         <v>2.16</v>
@@ -4398,6 +4401,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48489F5F-E61D-4680-8806-0A6D2CF3B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73173776-CF02-40ED-B742-361B2F8B05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$112</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -475,7 +472,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>4.4700000000000006</v>
+        <v>2.4700000000000006</v>
       </c>
       <c r="J2">
         <v>1.0999999999999999</v>
@@ -576,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="J3">
         <v>1.22</v>
@@ -611,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>3.52</v>
+        <v>1.52</v>
       </c>
       <c r="J4">
         <v>1.0999999999999999</v>
@@ -646,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>5.01</v>
+        <v>2.75</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -681,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J6">
         <v>1.29</v>
@@ -716,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J7">
         <v>1.69</v>
@@ -751,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J8">
         <v>1.27</v>
@@ -786,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J9">
         <v>1.92</v>
@@ -821,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>4.3499999999999996</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="J10">
         <v>1.1399999999999999</v>
@@ -856,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>3.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="J11">
         <v>1.74</v>
@@ -891,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>3.8</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J12">
         <v>2.33</v>
@@ -926,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>5.01</v>
+        <v>2.67</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -961,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J14">
         <v>1.69</v>
@@ -996,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>4.1500000000000004</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="J15">
         <v>1.54</v>
@@ -1031,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1066,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J17">
         <v>1.89</v>
@@ -1101,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>3.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J18">
         <v>1.39</v>
@@ -1136,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>4.57</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J19">
         <v>1.53</v>
@@ -1171,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>4.4700000000000006</v>
+        <v>2.4700000000000006</v>
       </c>
       <c r="J20">
         <v>1.71</v>
@@ -1206,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J21">
         <v>1.18</v>
@@ -1241,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1276,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>4.7200000000000006</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J23">
         <v>1.48</v>
@@ -1311,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J24">
         <v>2.2200000000000002</v>
@@ -1346,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -1381,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1416,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>3.61</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1451,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>4.8100000000000005</v>
+        <v>2.8100000000000005</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1486,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>4.43</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J29">
         <v>1.19</v>
@@ -1521,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J30">
         <v>1.1299999999999999</v>
@@ -1556,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J31">
         <v>1.66</v>
@@ -1591,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J32">
         <v>1.5</v>
@@ -1626,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>4.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J33">
         <v>1.28</v>
@@ -1661,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>4.46</v>
+        <v>2.46</v>
       </c>
       <c r="J34">
         <v>2.4400000000000004</v>
@@ -1696,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>4.54</v>
+        <v>2.54</v>
       </c>
       <c r="J35">
         <v>1.67</v>
@@ -1731,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="I36">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J36">
         <v>1.89</v>
@@ -1766,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>4.0199999999999996</v>
+        <v>2.0199999999999996</v>
       </c>
       <c r="J37">
         <v>1.42</v>
@@ -1801,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <v>3.92</v>
+        <v>1.92</v>
       </c>
       <c r="J38">
         <v>0.99</v>
@@ -1836,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>4.7799999999999994</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J39">
         <v>1.51</v>
@@ -1871,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J40">
         <v>1.6199999999999999</v>
@@ -1906,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="I41">
-        <v>3.67</v>
+        <v>1.67</v>
       </c>
       <c r="J41">
         <v>1.3599999999999999</v>
@@ -1941,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J42">
         <v>2.3200000000000003</v>
@@ -1976,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -2011,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="I44">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J44">
         <v>2.4000000000000004</v>
@@ -2046,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J45">
         <v>1.1499999999999999</v>
@@ -2081,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J46">
         <v>1.21</v>
@@ -2116,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J47">
         <v>2.3800000000000003</v>
@@ -2151,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>4.29</v>
+        <v>2.29</v>
       </c>
       <c r="J48">
         <v>2.2400000000000002</v>
@@ -2186,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J49">
         <v>1.5999999999999999</v>
@@ -2221,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J50">
         <v>1.94</v>
@@ -2256,7 +2253,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2291,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>4.62</v>
+        <v>2.62</v>
       </c>
       <c r="J52">
         <v>1.92</v>
@@ -2326,7 +2323,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>3.98</v>
+        <v>1.98</v>
       </c>
       <c r="J53">
         <v>2.0100000000000002</v>
@@ -2361,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>4.57</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J54">
         <v>2.4000000000000004</v>
@@ -2396,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>5.01</v>
+        <v>2.84</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2431,7 +2428,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J56">
         <v>2.37</v>
@@ -2466,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="I57">
-        <v>4.4800000000000004</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J57">
         <v>1.82</v>
@@ -2501,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>3.74</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="J58">
         <v>1.6199999999999999</v>
@@ -2536,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J59">
         <v>2.1500000000000004</v>
@@ -2571,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>4.09</v>
+        <v>2.09</v>
       </c>
       <c r="J60">
         <v>2.31</v>
@@ -2606,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>4.67</v>
+        <v>2.67</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2641,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2676,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>4.29</v>
+        <v>2.29</v>
       </c>
       <c r="J63">
         <v>1.57</v>
@@ -2711,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J64">
         <v>1.76</v>
@@ -2746,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J65">
         <v>1.1299999999999999</v>
@@ -2781,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J66">
         <v>0.97</v>
@@ -2816,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>4.8900000000000006</v>
+        <v>2.8900000000000006</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2851,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J68">
         <v>2.1700000000000004</v>
@@ -2886,7 +2883,7 @@
         <v>11</v>
       </c>
       <c r="I69">
-        <v>4.21</v>
+        <v>2.21</v>
       </c>
       <c r="J69">
         <v>1.03</v>
@@ -2921,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>5.01</v>
+        <v>2.66</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>
@@ -2956,7 +2953,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J71">
         <v>1.01</v>
@@ -2991,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J72">
         <v>2.08</v>
@@ -3026,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="I73">
-        <v>3.59</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J73">
         <v>1.38</v>
@@ -3061,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>3.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J74">
         <v>1.54</v>
@@ -3096,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="J75">
         <v>1.22</v>
@@ -3131,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J76">
         <v>1.97</v>
@@ -3166,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J77">
         <v>2.2400000000000002</v>
@@ -3201,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J78">
         <v>1.82</v>
@@ -3236,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>4.1899999999999995</v>
+        <v>2.1899999999999995</v>
       </c>
       <c r="J79">
         <v>1.3499999999999999</v>
@@ -3271,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J80">
         <v>1.6199999999999999</v>
@@ -3306,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>3.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="J81">
         <v>1.77</v>
@@ -3341,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="I82">
-        <v>4.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J82">
         <v>2.4000000000000004</v>
@@ -3376,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>1.1599999999999999</v>
@@ -3411,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>4.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J84">
         <v>2.2400000000000002</v>
@@ -3446,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J85">
         <v>1.63</v>
@@ -3481,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J86">
         <v>1.8699999999999999</v>
@@ -3516,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3551,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>3.76</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J88">
         <v>1.1599999999999999</v>
@@ -3586,7 +3583,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>4.7799999999999994</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J89">
         <v>2.21</v>
@@ -3621,7 +3618,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J90">
         <v>1.17</v>
@@ -3656,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>4.37</v>
+        <v>2.37</v>
       </c>
       <c r="J91">
         <v>1.42</v>
@@ -3691,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J92">
         <v>1.91</v>
@@ -3726,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J93">
         <v>1.69</v>
@@ -3761,7 +3758,7 @@
         <v>15</v>
       </c>
       <c r="I94">
-        <v>3.87</v>
+        <v>1.87</v>
       </c>
       <c r="J94">
         <v>2.31</v>
@@ -3796,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J95">
         <v>2.0900000000000003</v>
@@ -3831,7 +3828,7 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <v>3.62</v>
+        <v>1.62</v>
       </c>
       <c r="J96">
         <v>1.95</v>
@@ -3866,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J97">
         <v>1.67</v>
@@ -3901,7 +3898,7 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J98">
         <v>2.4300000000000002</v>
@@ -3936,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>4.5199999999999996</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J99">
         <v>1.94</v>
@@ -3971,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="J100">
         <v>1.71</v>
@@ -4006,7 +4003,7 @@
         <v>15</v>
       </c>
       <c r="I101">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J101">
         <v>1.4</v>
@@ -4041,7 +4038,7 @@
         <v>15</v>
       </c>
       <c r="I102">
-        <v>3.74</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4076,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="I103">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J103">
         <v>0.99</v>
@@ -4111,7 +4108,7 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J104">
         <v>1.43</v>
@@ -4146,7 +4143,7 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="J105">
         <v>1.99</v>
@@ -4181,7 +4178,7 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>4.7300000000000004</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J106">
         <v>1.3699999999999999</v>
@@ -4216,7 +4213,7 @@
         <v>15</v>
       </c>
       <c r="I107">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J107">
         <v>2.29</v>
@@ -4251,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="I108">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="J108">
         <v>2.4200000000000004</v>
@@ -4286,7 +4283,7 @@
         <v>15</v>
       </c>
       <c r="I109">
-        <v>4.9399999999999995</v>
+        <v>2.9399999999999995</v>
       </c>
       <c r="J109">
         <v>2.16</v>
@@ -4321,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="I110">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J110">
         <v>1.06</v>
@@ -4356,7 +4353,7 @@
         <v>15</v>
       </c>
       <c r="I111">
-        <v>3.67</v>
+        <v>1.67</v>
       </c>
       <c r="J111">
         <v>1.29</v>
@@ -4391,7 +4388,7 @@
         <v>15</v>
       </c>
       <c r="I112">
-        <v>4.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J112">
         <v>2.16</v>
@@ -4401,7 +4398,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73173776-CF02-40ED-B742-361B2F8B05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B999879-AC0F-4612-AC70-3623C418172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$113</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -535,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J2">
         <v>1.0999999999999999</v>
@@ -573,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J3">
         <v>1.22</v>
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J4">
         <v>1.0999999999999999</v>
@@ -628,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -637,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -678,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J6">
         <v>1.29</v>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J7">
         <v>1.69</v>
@@ -733,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -742,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J8">
         <v>1.27</v>
@@ -768,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -777,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J9">
         <v>1.92</v>
@@ -818,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.3499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J10">
         <v>1.1399999999999999</v>
@@ -838,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -850,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J11">
         <v>1.74</v>
@@ -888,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J12">
         <v>2.33</v>
@@ -908,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -917,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>2.67</v>
+        <v>4.67</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -943,22 +946,22 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J14">
         <v>1.69</v>
@@ -978,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -987,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J15">
         <v>1.54</v>
@@ -1028,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J17">
         <v>1.89</v>
@@ -1083,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1092,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J18">
         <v>1.39</v>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J19">
         <v>1.53</v>
@@ -1168,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J20">
         <v>1.71</v>
@@ -1188,22 +1191,22 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J21">
         <v>1.18</v>
@@ -1223,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1232,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1273,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>2.7200000000000006</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J23">
         <v>1.48</v>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J24">
         <v>2.2200000000000002</v>
@@ -1328,22 +1331,22 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -1363,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1375,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>2.92</v>
+        <v>4.92</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1398,22 +1401,22 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>1.6099999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1448,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1468,22 +1471,22 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J29">
         <v>1.19</v>
@@ -1518,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J30">
         <v>1.1299999999999999</v>
@@ -1553,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J31">
         <v>1.66</v>
@@ -1588,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J32">
         <v>1.5</v>
@@ -1608,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1617,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J33">
         <v>1.28</v>
@@ -1643,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1652,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I34">
-        <v>2.46</v>
+        <v>4.46</v>
       </c>
       <c r="J34">
         <v>2.4400000000000004</v>
@@ -1678,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1687,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>2.54</v>
+        <v>4.54</v>
       </c>
       <c r="J35">
         <v>1.67</v>
@@ -1713,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1725,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J36">
         <v>1.89</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J37">
         <v>1.42</v>
@@ -1798,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <v>1.92</v>
+        <v>3.92</v>
       </c>
       <c r="J38">
         <v>0.99</v>
@@ -1833,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>2.7799999999999994</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J39">
         <v>1.51</v>
@@ -1868,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J40">
         <v>1.6199999999999999</v>
@@ -1888,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1897,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J41">
         <v>1.3599999999999999</v>
@@ -1938,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J42">
         <v>2.3200000000000003</v>
@@ -1958,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1967,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>2.96</v>
+        <v>4.96</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -1993,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2005,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J44">
         <v>2.4000000000000004</v>
@@ -2043,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J45">
         <v>1.1499999999999999</v>
@@ -2078,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J46">
         <v>1.21</v>
@@ -2098,22 +2101,22 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J47">
         <v>2.3800000000000003</v>
@@ -2148,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J48">
         <v>2.2400000000000002</v>
@@ -2168,22 +2171,22 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I49">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J49">
         <v>1.5999999999999999</v>
@@ -2203,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2212,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I50">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J50">
         <v>1.94</v>
@@ -2253,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2273,22 +2276,22 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I52">
-        <v>2.62</v>
+        <v>4.62</v>
       </c>
       <c r="J52">
         <v>1.92</v>
@@ -2323,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="J53">
         <v>2.0100000000000002</v>
@@ -2358,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J54">
         <v>2.4000000000000004</v>
@@ -2378,22 +2381,22 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2428,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J56">
         <v>2.37</v>
@@ -2448,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2457,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J57">
         <v>1.82</v>
@@ -2498,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>1.7400000000000002</v>
+        <v>3.74</v>
       </c>
       <c r="J58">
         <v>1.6199999999999999</v>
@@ -2533,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J59">
         <v>2.1500000000000004</v>
@@ -2568,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J60">
         <v>2.31</v>
@@ -2588,22 +2591,22 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>2.67</v>
+        <v>4.67</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2623,22 +2626,22 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2658,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2670,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I63">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J63">
         <v>1.57</v>
@@ -2708,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J64">
         <v>1.76</v>
@@ -2743,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J65">
         <v>1.1299999999999999</v>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J66">
         <v>0.97</v>
@@ -2813,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>2.8900000000000006</v>
+        <v>4.8900000000000006</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2848,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J68">
         <v>2.1700000000000004</v>
@@ -2868,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2877,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I69">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="J69">
         <v>1.03</v>
@@ -2903,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2912,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I70">
-        <v>2.66</v>
+        <v>4.66</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>
@@ -2938,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2947,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I71">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J71">
         <v>1.01</v>
@@ -2988,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J72">
         <v>2.08</v>
@@ -3008,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3017,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I73">
-        <v>1.5899999999999999</v>
+        <v>3.59</v>
       </c>
       <c r="J73">
         <v>1.38</v>
@@ -3058,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J74">
         <v>1.54</v>
@@ -3078,22 +3081,22 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I75">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="J75">
         <v>1.22</v>
@@ -3113,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3122,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I76">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J76">
         <v>1.97</v>
@@ -3148,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3160,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I77">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J77">
         <v>2.2400000000000002</v>
@@ -3183,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3192,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I78">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J78">
         <v>1.82</v>
@@ -3218,7 +3221,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3227,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I79">
-        <v>2.1899999999999995</v>
+        <v>3.64</v>
       </c>
       <c r="J79">
-        <v>1.3499999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -3247,13 +3250,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3265,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I80">
-        <v>1.5699999999999998</v>
+        <v>4.1899999999999995</v>
       </c>
       <c r="J80">
-        <v>1.6199999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -3282,13 +3285,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3300,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>1.7000000000000002</v>
+        <v>3.57</v>
       </c>
       <c r="J81">
-        <v>1.77</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -3317,13 +3320,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3332,16 +3335,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I82">
-        <v>2.4900000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J82">
-        <v>2.4000000000000004</v>
+        <v>1.77</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -3352,10 +3355,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -3373,10 +3376,10 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4.49</v>
       </c>
       <c r="J83">
-        <v>1.1599999999999999</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -3387,10 +3390,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3408,10 +3411,10 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.5099999999999998</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>2.2400000000000002</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -3437,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
       </c>
       <c r="I85">
-        <v>1.8900000000000001</v>
+        <v>4.51</v>
       </c>
       <c r="J85">
-        <v>1.63</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -3457,13 +3460,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3472,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>1.6600000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J86">
-        <v>1.8699999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -3492,13 +3495,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3507,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>1.6</v>
+        <v>3.66</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -3527,10 +3530,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3548,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.7599999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="J88">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -3562,13 +3565,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3577,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>2.7799999999999994</v>
+        <v>3.76</v>
       </c>
       <c r="J89">
-        <v>2.21</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -3606,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3618,10 +3621,10 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.76</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J90">
-        <v>1.17</v>
+        <v>2.21</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -3647,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
       </c>
       <c r="I91">
-        <v>2.37</v>
+        <v>4.76</v>
       </c>
       <c r="J91">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -3667,13 +3670,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3685,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>1.6</v>
+        <v>4.37</v>
       </c>
       <c r="J92">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -3702,10 +3705,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
       </c>
       <c r="I93">
-        <v>2.1400000000000006</v>
+        <v>3.6</v>
       </c>
       <c r="J93">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -3737,31 +3740,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94">
-        <v>1.87</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J94">
-        <v>2.31</v>
+        <v>1.69</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -3772,10 +3775,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -3787,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
       </c>
       <c r="I95">
-        <v>1.6400000000000001</v>
+        <v>3.87</v>
       </c>
       <c r="J95">
-        <v>2.0900000000000003</v>
+        <v>2.31</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -3807,13 +3810,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3822,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I96">
-        <v>1.62</v>
+        <v>3.64</v>
       </c>
       <c r="J96">
-        <v>1.95</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -3842,10 +3845,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -3863,10 +3866,10 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <v>2.04</v>
+        <v>3.62</v>
       </c>
       <c r="J97">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -3883,7 +3886,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3892,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I98">
-        <v>2.0299999999999994</v>
+        <v>4.04</v>
       </c>
       <c r="J98">
-        <v>2.4300000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -3918,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3930,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I99">
-        <v>2.5199999999999996</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J99">
-        <v>1.94</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -3947,10 +3950,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -3968,10 +3971,10 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>2.17</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J100">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -3982,31 +3985,31 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I101">
-        <v>2.13</v>
+        <v>4.17</v>
       </c>
       <c r="J101">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -4023,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4032,372 +4035,23 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I102">
-        <v>1.7400000000000002</v>
+        <v>4.13</v>
       </c>
       <c r="J102">
-        <v>1.1399999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103">
-        <v>1.63</v>
-      </c>
-      <c r="J103">
-        <v>0.99</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104">
-        <v>1.6</v>
-      </c>
-      <c r="J104">
-        <v>1.43</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105">
-        <v>2.17</v>
-      </c>
-      <c r="J105">
-        <v>1.99</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106">
-        <v>2.7300000000000004</v>
-      </c>
-      <c r="J106">
-        <v>1.3699999999999999</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107">
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="J107">
-        <v>2.29</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108">
-        <v>1.75</v>
-      </c>
-      <c r="J108">
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109">
-        <v>2.9399999999999995</v>
-      </c>
-      <c r="J109">
-        <v>2.16</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110">
-        <v>2.2200000000000006</v>
-      </c>
-      <c r="J110">
-        <v>1.06</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111">
-        <v>1.67</v>
-      </c>
-      <c r="J111">
-        <v>1.29</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J112">
-        <v>2.16</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73173776-CF02-40ED-B742-361B2F8B05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD42769-76AF-40A6-8908-57B218887167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$113</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -535,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>2.4700000000000006</v>
@@ -628,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -637,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>2.75</v>
@@ -733,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -742,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>1.9700000000000002</v>
@@ -768,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -777,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>2.1099999999999994</v>
@@ -838,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -850,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>1.7000000000000002</v>
@@ -908,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -917,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>2.67</v>
@@ -943,19 +946,19 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>2.25</v>
@@ -978,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -987,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>2.1500000000000004</v>
@@ -1083,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1092,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>1.9500000000000002</v>
@@ -1188,19 +1191,19 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>2.1099999999999994</v>
@@ -1223,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1232,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22">
         <v>2.9000000000000004</v>
@@ -1328,19 +1331,19 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>2.1400000000000006</v>
@@ -1363,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1375,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>2.92</v>
@@ -1398,19 +1401,19 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>1.6099999999999999</v>
@@ -1468,19 +1471,19 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>2.4299999999999997</v>
@@ -1608,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1617,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>2.5499999999999998</v>
@@ -1643,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1652,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I34">
         <v>2.46</v>
@@ -1678,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1687,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35">
         <v>2.54</v>
@@ -1713,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1725,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>2.0700000000000003</v>
@@ -1888,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1897,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41">
         <v>1.67</v>
@@ -1958,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1967,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I43">
         <v>2.96</v>
@@ -1993,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2005,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I44">
         <v>1.8900000000000001</v>
@@ -2098,19 +2101,19 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I47">
         <v>2.13</v>
@@ -2168,19 +2171,19 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I49">
         <v>2.59</v>
@@ -2203,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2212,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I50">
         <v>2.3100000000000005</v>
@@ -2273,19 +2276,19 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I52">
         <v>2.62</v>
@@ -2378,19 +2381,19 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I55">
         <v>2.84</v>
@@ -2448,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2457,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57">
         <v>2.4800000000000004</v>
@@ -2588,19 +2591,19 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61">
         <v>2.67</v>
@@ -2623,19 +2626,19 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62">
         <v>2.9000000000000004</v>
@@ -2658,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2670,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I63">
         <v>2.29</v>
@@ -2868,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2877,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I69">
         <v>2.21</v>
@@ -2903,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2912,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I70">
         <v>2.66</v>
@@ -2938,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2947,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I71">
         <v>2.38</v>
@@ -3008,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3017,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I73">
         <v>1.5899999999999999</v>
@@ -3078,19 +3081,19 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I75">
         <v>1.9</v>
@@ -3113,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3122,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I76">
         <v>2.3200000000000003</v>
@@ -3148,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I77">
         <v>2.38</v>
@@ -3183,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3192,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I78">
         <v>2.42</v>
@@ -3218,7 +3221,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3227,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I79">
-        <v>2.1899999999999995</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J79">
-        <v>1.3499999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -3247,13 +3250,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3265,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I80">
-        <v>1.5699999999999998</v>
+        <v>2.1899999999999995</v>
       </c>
       <c r="J80">
-        <v>1.6199999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -3282,13 +3285,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3300,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>1.7000000000000002</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J81">
-        <v>1.77</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -3317,13 +3320,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3332,16 +3335,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I82">
-        <v>2.4900000000000002</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="J82">
-        <v>2.4000000000000004</v>
+        <v>1.77</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -3352,10 +3355,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -3373,10 +3376,10 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J83">
-        <v>1.1599999999999999</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -3387,10 +3390,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3408,10 +3411,10 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.5099999999999998</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>2.2400000000000002</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -3437,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
       </c>
       <c r="I85">
-        <v>1.8900000000000001</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J85">
-        <v>1.63</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -3457,13 +3460,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3472,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>1.6600000000000001</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J86">
-        <v>1.8699999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -3492,13 +3495,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3507,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>1.6</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -3527,10 +3530,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3548,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.7599999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="J88">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -3562,13 +3565,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3577,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>2.7799999999999994</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J89">
-        <v>2.21</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -3606,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3618,10 +3621,10 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.76</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J90">
-        <v>1.17</v>
+        <v>2.21</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -3647,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
       </c>
       <c r="I91">
-        <v>2.37</v>
+        <v>2.76</v>
       </c>
       <c r="J91">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -3667,13 +3670,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3685,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>1.6</v>
+        <v>2.37</v>
       </c>
       <c r="J92">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -3702,10 +3705,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
       </c>
       <c r="I93">
-        <v>2.1400000000000006</v>
+        <v>1.6</v>
       </c>
       <c r="J93">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -3737,31 +3740,31 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94">
-        <v>1.87</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J94">
-        <v>2.31</v>
+        <v>1.69</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -3772,10 +3775,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -3787,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
       </c>
       <c r="I95">
-        <v>1.6400000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="J95">
-        <v>2.0900000000000003</v>
+        <v>2.31</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -3807,13 +3810,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3822,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I96">
-        <v>1.62</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J96">
-        <v>1.95</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -3842,10 +3845,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -3863,10 +3866,10 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="J97">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -3883,7 +3886,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3892,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I98">
-        <v>2.0299999999999994</v>
+        <v>2.04</v>
       </c>
       <c r="J98">
-        <v>2.4300000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -3918,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3930,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I99">
-        <v>2.5199999999999996</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J99">
-        <v>1.94</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -3947,10 +3950,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -3968,10 +3971,10 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>2.17</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J100">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -3982,31 +3985,31 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I101">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="J101">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -4023,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4032,372 +4035,23 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I102">
-        <v>1.7400000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="J102">
-        <v>1.1399999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103">
-        <v>1.63</v>
-      </c>
-      <c r="J103">
-        <v>0.99</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104">
-        <v>1.6</v>
-      </c>
-      <c r="J104">
-        <v>1.43</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105">
-        <v>2.17</v>
-      </c>
-      <c r="J105">
-        <v>1.99</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106">
-        <v>2.7300000000000004</v>
-      </c>
-      <c r="J106">
-        <v>1.3699999999999999</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107">
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="J107">
-        <v>2.29</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108">
-        <v>1.75</v>
-      </c>
-      <c r="J108">
-        <v>2.4200000000000004</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109">
-        <v>2.9399999999999995</v>
-      </c>
-      <c r="J109">
-        <v>2.16</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110">
-        <v>2.2200000000000006</v>
-      </c>
-      <c r="J110">
-        <v>1.06</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111">
-        <v>1.67</v>
-      </c>
-      <c r="J111">
-        <v>1.29</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J112">
-        <v>2.16</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B999879-AC0F-4612-AC70-3623C418172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1603D32-FD13-45D0-A56B-8F6B422FEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>4.75</v>
+        <v>5.01</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>4.67</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>4.92</v>
+        <v>5.01</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1451,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>4.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -2256,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>4.67</v>
+        <v>5.01</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>4.8900000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2921,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>4.66</v>
+        <v>5.01</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1603D32-FD13-45D0-A56B-8F6B422FEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AC080-779D-4D00-9B11-74B92937951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13630" yWindow="1560" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4050,6 +4050,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103">
+        <v>3.74</v>
+      </c>
+      <c r="J103">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD42769-76AF-40A6-8908-57B218887167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC23E9-E285-4AC7-B313-0E2D729F5CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15190" yWindow="570" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4050,6 +4050,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103">
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="J103">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC23E9-E285-4AC7-B313-0E2D729F5CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431EEE8-FA21-4F18-9D6E-7EAD6CCF4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15190" yWindow="570" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1500" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J2">
         <v>1.0999999999999999</v>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J3">
         <v>1.22</v>
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J4">
         <v>1.0999999999999999</v>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>2.75</v>
+        <v>5.01</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J6">
         <v>1.29</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J7">
         <v>1.69</v>
@@ -751,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="I8">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J8">
         <v>1.27</v>
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J9">
         <v>1.92</v>
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.3499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J10">
         <v>1.1399999999999999</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J11">
         <v>1.74</v>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J12">
         <v>2.33</v>
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.67</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -961,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J14">
         <v>1.69</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J15">
         <v>1.54</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1066,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J17">
         <v>1.89</v>
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J18">
         <v>1.39</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J19">
         <v>1.53</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J20">
         <v>1.71</v>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J21">
         <v>1.18</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>2.7200000000000006</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J23">
         <v>1.48</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J24">
         <v>2.2200000000000002</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2.92</v>
+        <v>5.01</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1416,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>1.6099999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1451,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>2.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1486,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J29">
         <v>1.19</v>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J30">
         <v>1.1299999999999999</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J31">
         <v>1.66</v>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J32">
         <v>1.5</v>
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J33">
         <v>1.28</v>
@@ -1661,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>2.46</v>
+        <v>4.46</v>
       </c>
       <c r="J34">
         <v>2.4400000000000004</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>2.54</v>
+        <v>4.54</v>
       </c>
       <c r="J35">
         <v>1.67</v>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J36">
         <v>1.89</v>
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J37">
         <v>1.42</v>
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <v>1.92</v>
+        <v>3.92</v>
       </c>
       <c r="J38">
         <v>0.99</v>
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>2.7799999999999994</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J39">
         <v>1.51</v>
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J40">
         <v>1.6199999999999999</v>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J41">
         <v>1.3599999999999999</v>
@@ -1941,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J42">
         <v>2.3200000000000003</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J44">
         <v>2.4000000000000004</v>
@@ -2046,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J45">
         <v>1.1499999999999999</v>
@@ -2081,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J46">
         <v>1.21</v>
@@ -2116,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J47">
         <v>2.3800000000000003</v>
@@ -2151,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J48">
         <v>2.2400000000000002</v>
@@ -2186,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J49">
         <v>1.5999999999999999</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="I50">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J50">
         <v>1.94</v>
@@ -2256,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2291,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="I52">
-        <v>2.62</v>
+        <v>4.62</v>
       </c>
       <c r="J52">
         <v>1.92</v>
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="J53">
         <v>2.0100000000000002</v>
@@ -2361,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J54">
         <v>2.4000000000000004</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2431,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J56">
         <v>2.37</v>
@@ -2466,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J57">
         <v>1.82</v>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>1.7400000000000002</v>
+        <v>3.74</v>
       </c>
       <c r="J58">
         <v>1.6199999999999999</v>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J59">
         <v>2.1500000000000004</v>
@@ -2571,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J60">
         <v>2.31</v>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>2.67</v>
+        <v>5.01</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2676,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J63">
         <v>1.57</v>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J64">
         <v>1.76</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J65">
         <v>1.1299999999999999</v>
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J66">
         <v>0.97</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>2.8900000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2851,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J68">
         <v>2.1700000000000004</v>
@@ -2886,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="J69">
         <v>1.03</v>
@@ -2921,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>2.66</v>
+        <v>5.01</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>
@@ -2956,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J71">
         <v>1.01</v>
@@ -2991,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J72">
         <v>2.08</v>
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>1.5899999999999999</v>
+        <v>3.59</v>
       </c>
       <c r="J73">
         <v>1.38</v>
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J74">
         <v>1.54</v>
@@ -3096,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="J75">
         <v>1.22</v>
@@ -3131,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J76">
         <v>1.97</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J77">
         <v>2.2400000000000002</v>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J78">
         <v>1.82</v>
@@ -3236,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J79">
         <v>2.29</v>
@@ -3271,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <v>2.1899999999999995</v>
+        <v>4.1899999999999995</v>
       </c>
       <c r="J80">
         <v>1.3499999999999999</v>
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J81">
         <v>1.6199999999999999</v>
@@ -3341,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J82">
         <v>1.77</v>
@@ -3376,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="J83">
         <v>2.4000000000000004</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84">
         <v>1.1599999999999999</v>
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>2.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="J85">
         <v>2.2400000000000002</v>
@@ -3481,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J86">
         <v>1.63</v>
@@ -3516,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J87">
         <v>1.8699999999999999</v>
@@ -3551,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J89">
         <v>1.1599999999999999</v>
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.7799999999999994</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J90">
         <v>2.21</v>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J91">
         <v>1.17</v>
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="J92">
         <v>1.42</v>
@@ -3726,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J93">
         <v>1.91</v>
@@ -3761,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J94">
         <v>1.69</v>
@@ -3796,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>1.87</v>
+        <v>3.87</v>
       </c>
       <c r="J95">
         <v>2.31</v>
@@ -3831,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J96">
         <v>2.0900000000000003</v>
@@ -3866,7 +3866,7 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <v>1.62</v>
+        <v>3.62</v>
       </c>
       <c r="J97">
         <v>1.95</v>
@@ -3901,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J98">
         <v>1.67</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J99">
         <v>2.4300000000000002</v>
@@ -3971,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>2.5199999999999996</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J100">
         <v>1.94</v>
@@ -4006,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>2.17</v>
+        <v>4.17</v>
       </c>
       <c r="J101">
         <v>1.71</v>
@@ -4041,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J102">
         <v>1.4</v>
@@ -4076,12 +4076,187 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>1.7400000000000002</v>
+        <v>3.74</v>
       </c>
       <c r="J103">
         <v>1.1399999999999999</v>
       </c>
       <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104">
+        <v>3.63</v>
+      </c>
+      <c r="J104">
+        <v>0.99</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>3.6</v>
+      </c>
+      <c r="J105">
+        <v>1.43</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>4.17</v>
+      </c>
+      <c r="J106">
+        <v>1.99</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J107">
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108">
+        <v>3.64</v>
+      </c>
+      <c r="J108">
+        <v>2.29</v>
+      </c>
+      <c r="K108">
         <v>1</v>
       </c>
     </row>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AC080-779D-4D00-9B11-74B92937951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431EEE8-FA21-4F18-9D6E-7EAD6CCF4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13630" yWindow="1560" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1500" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4085,6 +4085,181 @@
         <v>1</v>
       </c>
     </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104">
+        <v>3.63</v>
+      </c>
+      <c r="J104">
+        <v>0.99</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>3.6</v>
+      </c>
+      <c r="J105">
+        <v>1.43</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>4.17</v>
+      </c>
+      <c r="J106">
+        <v>1.99</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J107">
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108">
+        <v>3.64</v>
+      </c>
+      <c r="J108">
+        <v>2.29</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431EEE8-FA21-4F18-9D6E-7EAD6CCF4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFCDFC-FAA4-4D43-931D-4C23C7FFF28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12290" yWindow="1500" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>4.4700000000000006</v>
+        <v>2.4700000000000006</v>
       </c>
       <c r="J2">
         <v>1.0999999999999999</v>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="J3">
         <v>1.22</v>
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>3.52</v>
+        <v>1.52</v>
       </c>
       <c r="J4">
         <v>1.0999999999999999</v>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>5.01</v>
+        <v>2.75</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J6">
         <v>1.29</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J7">
         <v>1.69</v>
@@ -751,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="I8">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J8">
         <v>1.27</v>
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J9">
         <v>1.92</v>
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>4.3499999999999996</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="J10">
         <v>1.1399999999999999</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>3.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="J11">
         <v>1.74</v>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>3.8</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J12">
         <v>2.33</v>
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>5.01</v>
+        <v>2.67</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -961,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J14">
         <v>1.69</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>4.1500000000000004</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="J15">
         <v>1.54</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>5.01</v>
+        <v>2.84</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1066,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J17">
         <v>1.89</v>
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>3.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J18">
         <v>1.39</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>4.57</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J19">
         <v>1.53</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>4.4700000000000006</v>
+        <v>2.4700000000000006</v>
       </c>
       <c r="J20">
         <v>1.71</v>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J21">
         <v>1.18</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>4.7200000000000006</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J23">
         <v>1.48</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J24">
         <v>2.2200000000000002</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1416,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>3.61</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1451,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>5.01</v>
+        <v>2.8100000000000005</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1486,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>4.43</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J29">
         <v>1.19</v>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J30">
         <v>1.1299999999999999</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J31">
         <v>1.66</v>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J32">
         <v>1.5</v>
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>4.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J33">
         <v>1.28</v>
@@ -1661,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>4.46</v>
+        <v>2.46</v>
       </c>
       <c r="J34">
         <v>2.4400000000000004</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>4.54</v>
+        <v>2.54</v>
       </c>
       <c r="J35">
         <v>1.67</v>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J36">
         <v>1.89</v>
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>4.0199999999999996</v>
+        <v>2.0199999999999996</v>
       </c>
       <c r="J37">
         <v>1.42</v>
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <v>3.92</v>
+        <v>1.92</v>
       </c>
       <c r="J38">
         <v>0.99</v>
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>4.7799999999999994</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J39">
         <v>1.51</v>
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J40">
         <v>1.6199999999999999</v>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>3.67</v>
+        <v>1.67</v>
       </c>
       <c r="J41">
         <v>1.3599999999999999</v>
@@ -1941,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J42">
         <v>2.3200000000000003</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J44">
         <v>2.4000000000000004</v>
@@ -2046,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J45">
         <v>1.1499999999999999</v>
@@ -2081,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J46">
         <v>1.21</v>
@@ -2116,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J47">
         <v>2.3800000000000003</v>
@@ -2151,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>4.29</v>
+        <v>2.29</v>
       </c>
       <c r="J48">
         <v>2.2400000000000002</v>
@@ -2186,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J49">
         <v>1.5999999999999999</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="I50">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J50">
         <v>1.94</v>
@@ -2256,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>5.01</v>
+        <v>2.84</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2291,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="I52">
-        <v>4.62</v>
+        <v>2.62</v>
       </c>
       <c r="J52">
         <v>1.92</v>
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>3.98</v>
+        <v>1.98</v>
       </c>
       <c r="J53">
         <v>2.0100000000000002</v>
@@ -2361,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>4.57</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J54">
         <v>2.4000000000000004</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>5.01</v>
+        <v>2.84</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2431,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J56">
         <v>2.37</v>
@@ -2466,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>4.4800000000000004</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J57">
         <v>1.82</v>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>3.74</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="J58">
         <v>1.6199999999999999</v>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J59">
         <v>2.1500000000000004</v>
@@ -2571,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>4.09</v>
+        <v>2.09</v>
       </c>
       <c r="J60">
         <v>2.31</v>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>5.01</v>
+        <v>2.67</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2676,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>4.29</v>
+        <v>2.29</v>
       </c>
       <c r="J63">
         <v>1.57</v>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J64">
         <v>1.76</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J65">
         <v>1.1299999999999999</v>
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J66">
         <v>0.97</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>5.01</v>
+        <v>2.8900000000000006</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2851,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J68">
         <v>2.1700000000000004</v>
@@ -2886,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>4.21</v>
+        <v>2.21</v>
       </c>
       <c r="J69">
         <v>1.03</v>
@@ -2921,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>5.01</v>
+        <v>2.66</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>
@@ -2956,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J71">
         <v>1.01</v>
@@ -2991,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J72">
         <v>2.08</v>
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>3.59</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J73">
         <v>1.38</v>
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>3.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J74">
         <v>1.54</v>
@@ -3096,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="J75">
         <v>1.22</v>
@@ -3131,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J76">
         <v>1.97</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J77">
         <v>2.2400000000000002</v>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J78">
         <v>1.82</v>
@@ -3236,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J79">
         <v>2.29</v>
@@ -3271,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <v>4.1899999999999995</v>
+        <v>2.1899999999999995</v>
       </c>
       <c r="J80">
         <v>1.3499999999999999</v>
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J81">
         <v>1.6199999999999999</v>
@@ -3341,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>3.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="J82">
         <v>1.77</v>
@@ -3376,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>4.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J83">
         <v>2.4000000000000004</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>1.1599999999999999</v>
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>4.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J85">
         <v>2.2400000000000002</v>
@@ -3481,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J86">
         <v>1.63</v>
@@ -3516,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J87">
         <v>1.8699999999999999</v>
@@ -3551,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>3.76</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J89">
         <v>1.1599999999999999</v>
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>4.7799999999999994</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J90">
         <v>2.21</v>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J91">
         <v>1.17</v>
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>4.37</v>
+        <v>2.37</v>
       </c>
       <c r="J92">
         <v>1.42</v>
@@ -3726,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J93">
         <v>1.91</v>
@@ -3761,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J94">
         <v>1.69</v>
@@ -3796,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>3.87</v>
+        <v>1.87</v>
       </c>
       <c r="J95">
         <v>2.31</v>
@@ -3831,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J96">
         <v>2.0900000000000003</v>
@@ -3866,7 +3866,7 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <v>3.62</v>
+        <v>1.62</v>
       </c>
       <c r="J97">
         <v>1.95</v>
@@ -3901,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J98">
         <v>1.67</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J99">
         <v>2.4300000000000002</v>
@@ -3971,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>4.5199999999999996</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J100">
         <v>1.94</v>
@@ -4006,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="J101">
         <v>1.71</v>
@@ -4041,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J102">
         <v>1.4</v>
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>3.74</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="J103">
         <v>1.1399999999999999</v>
@@ -4111,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="I104">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J104">
         <v>0.99</v>
@@ -4146,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J105">
         <v>1.43</v>
@@ -4181,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="I106">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="J106">
         <v>1.99</v>
@@ -4216,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="I107">
-        <v>4.7300000000000004</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J107">
         <v>1.3699999999999999</v>
@@ -4251,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="I108">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J108">
         <v>2.29</v>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431EEE8-FA21-4F18-9D6E-7EAD6CCF4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA6552-75F4-4093-B837-81E4A24ACB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12290" yWindow="1500" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFCDFC-FAA4-4D43-931D-4C23C7FFF28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696DE31-0CD2-4E96-99FC-0FF17AFC9A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="J5">
         <v>1.38</v>
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="J13">
         <v>1.3299999999999998</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="J26">
         <v>0.98</v>
@@ -1451,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>2.8100000000000005</v>
+        <v>3.01</v>
       </c>
       <c r="J28">
         <v>1.97</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="J43">
         <v>1.91</v>
@@ -2256,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="J51">
         <v>1.1099999999999999</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="J55">
         <v>2.4300000000000002</v>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J62">
         <v>1.99</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>2.8900000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J67">
         <v>1.55</v>
@@ -2921,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>2.66</v>
+        <v>3.01</v>
       </c>
       <c r="J70">
         <v>1.0799999999999998</v>
